--- a/biscicol-server.xlsx
+++ b/biscicol-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdeck/IdeaProjects/biscicol-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4EFD51-D669-C642-9816-B85A945CBFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9005BB4-BFB3-1B40-9FC1-7A645A0C30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="620" windowWidth="27640" windowHeight="16440" xr2:uid="{5A5DB9FD-FC1A-AA44-A35E-CFCC02741054}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>port (node)</t>
   </si>
@@ -84,12 +84,6 @@
     <t>/futresapi/v3/download</t>
   </si>
   <si>
-    <t>/futresapi/downloadable</t>
-  </si>
-  <si>
-    <t>/home/exouser/code/biscicol-server/futres_data/downloadable</t>
-  </si>
-  <si>
     <t>/adapi/v3/download</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>/futres/api/v3/download</t>
   </si>
   <si>
-    <t>/futres/api/download</t>
-  </si>
-  <si>
     <t>/herdlist/api/v1/csv</t>
   </si>
   <si>
@@ -211,6 +202,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>/geome-projects</t>
   </si>
 </sst>
 </file>
@@ -576,7 +570,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,13 +582,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -611,10 +605,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -628,13 +622,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>3011</v>
@@ -645,10 +639,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -662,10 +656,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -679,10 +673,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -696,10 +690,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -708,15 +702,15 @@
         <v>3020</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -725,15 +719,15 @@
         <v>3024</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -742,15 +736,15 @@
         <v>3026</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -759,21 +753,21 @@
         <v>3025</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>3028</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -781,92 +775,83 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>3028</v>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>3027</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>3027</v>
+        <v>3500</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
-        <v>3300</v>
+      <c r="E16" t="s">
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -891,19 +876,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,33 +896,33 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/biscicol-server.xlsx
+++ b/biscicol-server.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdeck/IdeaProjects/biscicol-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9005BB4-BFB3-1B40-9FC1-7A645A0C30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BF6ED-939F-5446-960D-AB36F790C2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="620" windowWidth="27640" windowHeight="16440" xr2:uid="{5A5DB9FD-FC1A-AA44-A35E-CFCC02741054}"/>
+    <workbookView xWindow="-700" yWindow="-13760" windowWidth="27640" windowHeight="16440" xr2:uid="{5A5DB9FD-FC1A-AA44-A35E-CFCC02741054}"/>
   </bookViews>
   <sheets>
     <sheet name="node scripts" sheetId="1" r:id="rId1"/>
     <sheet name="applications" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>port (node)</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>phenobase</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
   <si>
     <t>/api/v3/download</t>
@@ -567,291 +564,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6409D6-2AF4-D24A-93B1-251B07842967}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("location ",$D2," { rewrite ^",$D2,"$ ",$C2,"; }")</f>
+        <v>location /api/v2/download { rewrite ^/api/v2/download$ /ppo/api/v2/download; }</v>
+      </c>
+      <c r="F2">
         <v>3007</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT("location ",$D3," { rewrite ^",$D3,"$ ",$C3,"; }")</f>
+        <v>location /api/v3/download { rewrite ^/api/v3/download$ /ppo/api/v3/download; }</v>
+      </c>
+      <c r="F3">
         <v>3011</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.CONCAT("location ",$D4," { rewrite ^",$D4,"$ ",$C4,"; }")</f>
+        <v>location /api/v1/query { rewrite ^/api/v1/query$ /ppo/api/v1/query; }</v>
+      </c>
+      <c r="F4">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3001</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.CONCAT("location ",$D5," { rewrite ^",$D5,"$ ",$C5,"; }")</f>
+        <v>location /api/v1/ppo { rewrite ^/api/v1/ppo$ /ppo/api/v1/ppo; }</v>
+      </c>
+      <c r="F5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>3000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="E6" t="str">
+        <f>_xlfn.CONCAT("location ",$D6," { rewrite ^",$D6,"$ ",$C6,"; }")</f>
+        <v>location /api/v2/ppo { rewrite ^/api/v2/ppo$ /ppo/api/v2/ppo; }</v>
+      </c>
+      <c r="F6">
         <v>3008</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT("location ",$D7," { rewrite ^",$D7,"$ ",$C7,"; }")</f>
+        <v>location /futresapi/v1/query { rewrite ^/futresapi/v1/query$ /futres/api/v1/query; }</v>
+      </c>
+      <c r="F7">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>3020</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("location ",$D8," { rewrite ^",$D8,"$ ",$C8,"; }")</f>
+        <v>location /futresapi/v2/download { rewrite ^/futresapi/v2/download$ /futres/api/v2/download; }</v>
+      </c>
+      <c r="F8">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("location ",$D9," { rewrite ^",$D9,"$ ",$C9,"; }")</f>
+        <v>location /futresapi/v3/download { rewrite ^/futresapi/v3/download$ /futres/api/v3/download; }</v>
+      </c>
+      <c r="F9">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>3024</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>3026</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("location ",$D10," { rewrite ^",$D10,"$ ",$C10,"; }")</f>
+        <v>location /futresapi/v2/fovt { rewrite ^/futresapi/v2/fovt$ /futres/api/v2/fovt; }</v>
+      </c>
+      <c r="F10">
         <v>3025</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
         <v>3028</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="E13" t="str">
+        <f>_xlfn.CONCAT("location ",$D13," { rewrite ^",$D13,"$ ",$C13,"; }")</f>
+        <v>location /adapi/v3/download { rewrite ^/adapi/v3/download$ /amphibian_disease/api/v3/download; }</v>
+      </c>
+      <c r="F13">
         <v>3027</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT("location ",$D16," { rewrite ^",$D16,"$ ",$C16,"; }")</f>
+        <v>location /api/v1/csv { rewrite ^/api/v1/csv$ /herdlist/api/v1/csv; }</v>
+      </c>
+      <c r="F16">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.CONCAT("location ",$D18," { rewrite ^",$D18,"$ ",$C18,"; }")</f>
+        <v>location /phenobase/api/v1 { rewrite ^/phenobase/api/v1$ /phenobase/api/v1/query; }</v>
+      </c>
+      <c r="F18">
         <v>3500</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>3300</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -876,19 +922,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -896,16 +942,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -913,16 +959,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
